--- a/work_diary/工作日志_张兴.xlsx
+++ b/work_diary/工作日志_张兴.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>工作日志</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -39,6 +39,20 @@
   </si>
   <si>
     <t>讨论系统的需求，并用xmind脑图的方式展示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论系统的需求，并用xmind脑图的方式展示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张兴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、安装git
+2、在github上创建账号
+3、使用git创建本地仓库并关联github远程仓库（本地git上通过RSA加密算法生成公钥和私钥，在github上保存公钥信息 ssh-keygen -t rsa -C "854344184@qq.com"）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -228,7 +242,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -294,6 +308,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -601,7 +618,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D14"/>
+      <selection activeCell="E19" sqref="E19:T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -841,180 +858,192 @@
       <c r="T10" s="20"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
+      <c r="A11" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="B11" s="11"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="19">
+        <v>43023</v>
+      </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="11"/>
+      <c r="E11" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="14"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="14"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="17"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
+      <c r="A15" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="10"/>
+      <c r="C15" s="19">
+        <v>43026</v>
+      </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="11"/>
+      <c r="E15" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="14"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="14"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="17"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
